--- a/public/file_template/user_template.xlsx
+++ b/public/file_template/user_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HongheLibrary\library\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HongheLibrary\library\public\file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,7 +58,23 @@
     <t>SUPER</t>
   </si>
   <si>
-    <t>女</t>
+    <t>1231231231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12312@123.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231231123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -69,7 +85,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="&quot;On&quot;;&quot;On&quot;;&quot;Off&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +96,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -109,39 +134,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,91 +451,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
+    <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="11.125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>137</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>4234234234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7">
+        <v>18203</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>42416</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7">
-        <v>32342342</v>
-      </c>
-      <c r="H2" s="7">
-        <v>2342342</v>
-      </c>
-      <c r="I2" s="7">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E3">
-        <v>30</v>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>"工号"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"姓名"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"性别"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+      <formula1>"借阅周期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>"角色"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+      <formula1>"电话"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>"邮箱"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
@@ -514,11 +562,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"SUPER,ADMIN,CUSTOM"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:B1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B1048576">
       <formula1>1</formula1>
       <formula2>64</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:H1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H1048576">
       <formula1>0</formula1>
       <formula2>128</formula2>
     </dataValidation>
@@ -526,8 +574,17 @@
       <formula1>5</formula1>
       <formula2>64</formula2>
     </dataValidation>
+    <dataValidation type="date" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>18172</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"出生日期"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>